--- a/Adactin_Test_Scenarios.xlsx
+++ b/Adactin_Test_Scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView windowWidth="23040" windowHeight="11724"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="393">
   <si>
     <r>
       <rPr>
@@ -46,7 +46,7 @@
     <t>REVIEWED BY</t>
   </si>
   <si>
-    <t>Prof. Suresh Sir</t>
+    <t>Suresh</t>
   </si>
   <si>
     <t>PROJECT NAME</t>
@@ -1340,11 +1340,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1458,16 +1458,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1496,10 +1509,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1510,11 +1523,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1527,17 +1539,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1556,24 +1569,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1585,7 +1585,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1606,13 +1606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,49 +1624,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,7 +1672,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,7 +1702,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,7 +1738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,7 +1750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,25 +1762,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,30 +1787,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,11 +1839,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1863,17 +1869,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1902,149 +1902,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2067,10 +2067,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2558,8 +2558,8 @@
   <sheetPr/>
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -4893,6 +4893,9 @@
       <c r="E99" s="13" t="s">
         <v>344</v>
       </c>
+      <c r="F99" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G99" s="1" t="s">
         <v>25</v>
       </c>
@@ -4913,6 +4916,9 @@
       <c r="E100" s="13" t="s">
         <v>347</v>
       </c>
+      <c r="F100" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G100" s="1" t="s">
         <v>25</v>
       </c>
@@ -4933,6 +4939,9 @@
       <c r="E101" s="13" t="s">
         <v>350</v>
       </c>
+      <c r="F101" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G101" s="1" t="s">
         <v>25</v>
       </c>
@@ -4953,6 +4962,9 @@
       <c r="E102" s="13" t="s">
         <v>353</v>
       </c>
+      <c r="F102" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G102" s="1" t="s">
         <v>25</v>
       </c>
@@ -4973,6 +4985,9 @@
       <c r="E103" s="13" t="s">
         <v>356</v>
       </c>
+      <c r="F103" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G103" s="1" t="s">
         <v>25</v>
       </c>
@@ -4996,6 +5011,9 @@
       <c r="E104" s="13" t="s">
         <v>360</v>
       </c>
+      <c r="F104" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G104" s="1" t="s">
         <v>25</v>
       </c>
@@ -5019,6 +5037,9 @@
       <c r="E105" s="13" t="s">
         <v>364</v>
       </c>
+      <c r="F105" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G105" s="1" t="s">
         <v>25</v>
       </c>
@@ -5042,6 +5063,9 @@
       <c r="E106" s="13" t="s">
         <v>368</v>
       </c>
+      <c r="F106" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G106" s="1" t="s">
         <v>25</v>
       </c>
@@ -5062,6 +5086,9 @@
       <c r="E107" s="13" t="s">
         <v>371</v>
       </c>
+      <c r="F107" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G107" s="1" t="s">
         <v>25</v>
       </c>
@@ -5082,6 +5109,9 @@
       <c r="E108" s="13" t="s">
         <v>374</v>
       </c>
+      <c r="F108" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G108" s="1" t="s">
         <v>25</v>
       </c>
@@ -5102,6 +5132,9 @@
       <c r="E109" s="13" t="s">
         <v>377</v>
       </c>
+      <c r="F109" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G109" s="1" t="s">
         <v>25</v>
       </c>
@@ -5122,6 +5155,9 @@
       <c r="E110" s="13" t="s">
         <v>380</v>
       </c>
+      <c r="F110" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G110" s="1" t="s">
         <v>25</v>
       </c>
@@ -5142,6 +5178,9 @@
       <c r="E111" s="13" t="s">
         <v>383</v>
       </c>
+      <c r="F111" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G111" s="1" t="s">
         <v>25</v>
       </c>
@@ -5162,6 +5201,9 @@
       <c r="E112" s="13" t="s">
         <v>386</v>
       </c>
+      <c r="F112" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G112" s="1" t="s">
         <v>25</v>
       </c>
@@ -5182,6 +5224,9 @@
       <c r="E113" s="13" t="s">
         <v>389</v>
       </c>
+      <c r="F113" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="G113" s="1" t="s">
         <v>25</v>
       </c>
@@ -5201,6 +5246,9 @@
       </c>
       <c r="E114" s="13" t="s">
         <v>392</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>25</v>
